--- a/QSensorCalibration.xlsx
+++ b/QSensorCalibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audreypohl/Documents/Best-MnM-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92523AB3-C7F0-AF4D-AADF-0CA6648AB3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00CA57-00E2-4D4D-9C7D-B3292BA4337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="17600" windowHeight="16440" xr2:uid="{CB666F99-500B-BE4B-BEB6-F87A2B1CBEB5}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="16480" windowHeight="16440" xr2:uid="{CB666F99-500B-BE4B-BEB6-F87A2B1CBEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,197 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -492,7 +682,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,34 +733,34 @@
         <v>2500</v>
       </c>
       <c r="C2" s="2">
-        <v>2270</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="2">
-        <v>2500</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2">
-        <v>1550</v>
+        <v>1930</v>
       </c>
       <c r="F2" s="2">
-        <v>1760</v>
+        <v>2300</v>
       </c>
       <c r="G2" s="2">
-        <v>2360</v>
+        <v>2500</v>
       </c>
       <c r="H2" s="2">
-        <v>1680</v>
+        <v>2500</v>
       </c>
       <c r="I2" s="2">
-        <v>1405</v>
+        <v>2500</v>
       </c>
       <c r="J2" s="2">
-        <v>720</v>
+        <v>2500</v>
       </c>
       <c r="K2" s="2">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="L2" s="2">
-        <v>585</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -581,34 +771,34 @@
         <v>2500</v>
       </c>
       <c r="C3" s="2">
-        <v>2270</v>
+        <v>2500</v>
       </c>
       <c r="D3" s="2">
-        <v>2500</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
-        <v>1548</v>
+        <v>1875</v>
       </c>
       <c r="F3" s="2">
-        <v>1760</v>
+        <v>2250</v>
       </c>
       <c r="G3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J3" s="2">
         <v>2360</v>
       </c>
-      <c r="H3" s="2">
-        <v>1765</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1475</v>
-      </c>
-      <c r="J3" s="2">
-        <v>820</v>
-      </c>
       <c r="K3" s="2">
-        <v>455</v>
+        <v>940</v>
       </c>
       <c r="L3" s="2">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -619,34 +809,34 @@
         <v>2500</v>
       </c>
       <c r="C4" s="2">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="2">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="E4" s="2">
-        <v>1565</v>
+        <v>1930</v>
       </c>
       <c r="F4" s="2">
-        <v>1790</v>
+        <v>2260</v>
       </c>
       <c r="G4" s="2">
-        <v>2465</v>
+        <v>2500</v>
       </c>
       <c r="H4" s="2">
-        <v>1780</v>
+        <v>2500</v>
       </c>
       <c r="I4" s="2">
-        <v>1040</v>
+        <v>1864</v>
       </c>
       <c r="J4" s="2">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="K4" s="2">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="L4" s="2">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -657,34 +847,34 @@
         <v>2500</v>
       </c>
       <c r="C5" s="2">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="2">
-        <v>2500</v>
+        <v>370</v>
       </c>
       <c r="E5" s="2">
-        <v>1470</v>
+        <v>1890</v>
       </c>
       <c r="F5" s="2">
-        <v>1628</v>
+        <v>2160</v>
       </c>
       <c r="G5" s="2">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H5" s="2">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="I5" s="2">
-        <v>266</v>
+        <v>434</v>
       </c>
       <c r="J5" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="K5" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="L5" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -695,34 +885,34 @@
         <v>2500</v>
       </c>
       <c r="C6" s="2">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="D6" s="2">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="E6" s="2">
-        <v>1210</v>
+        <v>1720</v>
       </c>
       <c r="F6" s="2">
-        <v>550</v>
+        <v>940</v>
       </c>
       <c r="G6" s="2">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="H6" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="I6" s="2">
-        <v>266</v>
+        <v>500</v>
       </c>
       <c r="J6" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="K6" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="L6" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -730,37 +920,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2480</v>
+        <v>2500</v>
       </c>
       <c r="C7" s="2">
-        <v>1858</v>
+        <v>2500</v>
       </c>
       <c r="D7" s="2">
-        <v>1560</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="F7" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="G7" s="2">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="H7" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="I7" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="J7" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="K7" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="L7" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -768,37 +958,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1430</v>
+        <v>2500</v>
       </c>
       <c r="C8" s="2">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D8" s="2">
-        <v>575</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="F8" s="2">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H8" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="I8" s="2">
-        <v>266</v>
+        <v>510</v>
       </c>
       <c r="J8" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="K8" s="2">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="L8" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -806,49 +996,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="D9" s="2">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="F9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="G9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="H9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="I9" s="2">
-        <v>264</v>
+        <v>510</v>
       </c>
       <c r="J9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="K9" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="L9" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>$K$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>$K$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>$G$6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
